--- a/BAJADA2 CRD 12-05.xlsx
+++ b/BAJADA2 CRD 12-05.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rstaffolani\Desktop\unificar-archivos-ocasa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\OneDrive\Escritorio\unificar-archivos-ocasa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC4E3036-B624-4BA5-B6B5-FF7F0A72DCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CA81A7-964D-44BD-ADB9-037996E89C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{276BD5F0-23CC-4FA7-9970-0AA7F0115BED}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{276BD5F0-23CC-4FA7-9970-0AA7F0115BED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2507,7 +2518,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -3008,16 +3019,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3376,57 +3388,57 @@
   <dimension ref="A1:AT110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="43.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="43.6328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="43.453125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="34.90625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3439,7 +3451,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -3523,7 +3535,7 @@
       <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="AH1" s="2" t="s">
@@ -3566,7 +3578,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,7 +3682,7 @@
       </c>
       <c r="AT2" s="1"/>
     </row>
-    <row r="3" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -3770,7 +3782,7 @@
       </c>
       <c r="AT3" s="1"/>
     </row>
-    <row r="4" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
@@ -3866,7 +3878,7 @@
       </c>
       <c r="AT4" s="1"/>
     </row>
-    <row r="5" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>93</v>
       </c>
@@ -3964,7 +3976,7 @@
       </c>
       <c r="AT5" s="1"/>
     </row>
-    <row r="6" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
@@ -4070,7 +4082,7 @@
       </c>
       <c r="AT6" s="1"/>
     </row>
-    <row r="7" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>118</v>
       </c>
@@ -4172,7 +4184,7 @@
       </c>
       <c r="AT7" s="1"/>
     </row>
-    <row r="8" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>127</v>
       </c>
@@ -4278,7 +4290,7 @@
       </c>
       <c r="AT8" s="1"/>
     </row>
-    <row r="9" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>138</v>
       </c>
@@ -4384,7 +4396,7 @@
       </c>
       <c r="AT9" s="1"/>
     </row>
-    <row r="10" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>147</v>
       </c>
@@ -4480,7 +4492,7 @@
       </c>
       <c r="AT10" s="1"/>
     </row>
-    <row r="11" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>154</v>
       </c>
@@ -4586,7 +4598,7 @@
       </c>
       <c r="AT11" s="1"/>
     </row>
-    <row r="12" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>162</v>
       </c>
@@ -4692,7 +4704,7 @@
       </c>
       <c r="AT12" s="1"/>
     </row>
-    <row r="13" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>168</v>
       </c>
@@ -4798,7 +4810,7 @@
       </c>
       <c r="AT13" s="1"/>
     </row>
-    <row r="14" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>179</v>
       </c>
@@ -4906,7 +4918,7 @@
       </c>
       <c r="AT14" s="1"/>
     </row>
-    <row r="15" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>189</v>
       </c>
@@ -5010,7 +5022,7 @@
       </c>
       <c r="AT15" s="1"/>
     </row>
-    <row r="16" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>195</v>
       </c>
@@ -5116,7 +5128,7 @@
       </c>
       <c r="AT16" s="1"/>
     </row>
-    <row r="17" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>204</v>
       </c>
@@ -5224,7 +5236,7 @@
       </c>
       <c r="AT17" s="1"/>
     </row>
-    <row r="18" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>214</v>
       </c>
@@ -5330,7 +5342,7 @@
       </c>
       <c r="AT18" s="1"/>
     </row>
-    <row r="19" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>221</v>
       </c>
@@ -5438,7 +5450,7 @@
       </c>
       <c r="AT19" s="1"/>
     </row>
-    <row r="20" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>228</v>
       </c>
@@ -5544,7 +5556,7 @@
       </c>
       <c r="AT20" s="1"/>
     </row>
-    <row r="21" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>237</v>
       </c>
@@ -5650,7 +5662,7 @@
       </c>
       <c r="AT21" s="1"/>
     </row>
-    <row r="22" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>248</v>
       </c>
@@ -5756,7 +5768,7 @@
       </c>
       <c r="AT22" s="1"/>
     </row>
-    <row r="23" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>255</v>
       </c>
@@ -5862,7 +5874,7 @@
       </c>
       <c r="AT23" s="1"/>
     </row>
-    <row r="24" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>264</v>
       </c>
@@ -5968,7 +5980,7 @@
       </c>
       <c r="AT24" s="1"/>
     </row>
-    <row r="25" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>271</v>
       </c>
@@ -6074,7 +6086,7 @@
       </c>
       <c r="AT25" s="1"/>
     </row>
-    <row r="26" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>279</v>
       </c>
@@ -6180,7 +6192,7 @@
       </c>
       <c r="AT26" s="1"/>
     </row>
-    <row r="27" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>286</v>
       </c>
@@ -6286,7 +6298,7 @@
       </c>
       <c r="AT27" s="1"/>
     </row>
-    <row r="28" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>295</v>
       </c>
@@ -6394,7 +6406,7 @@
       </c>
       <c r="AT28" s="1"/>
     </row>
-    <row r="29" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>302</v>
       </c>
@@ -6500,7 +6512,7 @@
       </c>
       <c r="AT29" s="1"/>
     </row>
-    <row r="30" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>308</v>
       </c>
@@ -6606,7 +6618,7 @@
       </c>
       <c r="AT30" s="1"/>
     </row>
-    <row r="31" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>315</v>
       </c>
@@ -6714,7 +6726,7 @@
       </c>
       <c r="AT31" s="1"/>
     </row>
-    <row r="32" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>323</v>
       </c>
@@ -6822,7 +6834,7 @@
       </c>
       <c r="AT32" s="1"/>
     </row>
-    <row r="33" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>335</v>
       </c>
@@ -6930,7 +6942,7 @@
       </c>
       <c r="AT33" s="1"/>
     </row>
-    <row r="34" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>344</v>
       </c>
@@ -7036,7 +7048,7 @@
       </c>
       <c r="AT34" s="1"/>
     </row>
-    <row r="35" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>354</v>
       </c>
@@ -7134,7 +7146,7 @@
       </c>
       <c r="AT35" s="1"/>
     </row>
-    <row r="36" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>362</v>
       </c>
@@ -7236,7 +7248,7 @@
       </c>
       <c r="AT36" s="1"/>
     </row>
-    <row r="37" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>370</v>
       </c>
@@ -7338,7 +7350,7 @@
       </c>
       <c r="AT37" s="1"/>
     </row>
-    <row r="38" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>376</v>
       </c>
@@ -7444,7 +7456,7 @@
       </c>
       <c r="AT38" s="1"/>
     </row>
-    <row r="39" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>382</v>
       </c>
@@ -7546,7 +7558,7 @@
       </c>
       <c r="AT39" s="1"/>
     </row>
-    <row r="40" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>387</v>
       </c>
@@ -7652,7 +7664,7 @@
       </c>
       <c r="AT40" s="1"/>
     </row>
-    <row r="41" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>394</v>
       </c>
@@ -7754,7 +7766,7 @@
       </c>
       <c r="AT41" s="1"/>
     </row>
-    <row r="42" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>399</v>
       </c>
@@ -7860,7 +7872,7 @@
       </c>
       <c r="AT42" s="1"/>
     </row>
-    <row r="43" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>406</v>
       </c>
@@ -7962,7 +7974,7 @@
       </c>
       <c r="AT43" s="1"/>
     </row>
-    <row r="44" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>412</v>
       </c>
@@ -8068,7 +8080,7 @@
       </c>
       <c r="AT44" s="1"/>
     </row>
-    <row r="45" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>421</v>
       </c>
@@ -8170,7 +8182,7 @@
       </c>
       <c r="AT45" s="1"/>
     </row>
-    <row r="46" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>426</v>
       </c>
@@ -8276,7 +8288,7 @@
       </c>
       <c r="AT46" s="1"/>
     </row>
-    <row r="47" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>433</v>
       </c>
@@ -8380,7 +8392,7 @@
       </c>
       <c r="AT47" s="1"/>
     </row>
-    <row r="48" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>443</v>
       </c>
@@ -8488,7 +8500,7 @@
       </c>
       <c r="AT48" s="1"/>
     </row>
-    <row r="49" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>452</v>
       </c>
@@ -8594,7 +8606,7 @@
       </c>
       <c r="AT49" s="1"/>
     </row>
-    <row r="50" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>460</v>
       </c>
@@ -8700,7 +8712,7 @@
       </c>
       <c r="AT50" s="1"/>
     </row>
-    <row r="51" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>469</v>
       </c>
@@ -8806,7 +8818,7 @@
       </c>
       <c r="AT51" s="1"/>
     </row>
-    <row r="52" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>476</v>
       </c>
@@ -8912,7 +8924,7 @@
       </c>
       <c r="AT52" s="1"/>
     </row>
-    <row r="53" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>483</v>
       </c>
@@ -9018,7 +9030,7 @@
       </c>
       <c r="AT53" s="1"/>
     </row>
-    <row r="54" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>492</v>
       </c>
@@ -9122,7 +9134,7 @@
       </c>
       <c r="AT54" s="1"/>
     </row>
-    <row r="55" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>501</v>
       </c>
@@ -9228,7 +9240,7 @@
       </c>
       <c r="AT55" s="1"/>
     </row>
-    <row r="56" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>510</v>
       </c>
@@ -9334,7 +9346,7 @@
       </c>
       <c r="AT56" s="1"/>
     </row>
-    <row r="57" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>513</v>
       </c>
@@ -9440,7 +9452,7 @@
       </c>
       <c r="AT57" s="1"/>
     </row>
-    <row r="58" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>523</v>
       </c>
@@ -9544,7 +9556,7 @@
       </c>
       <c r="AT58" s="1"/>
     </row>
-    <row r="59" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>531</v>
       </c>
@@ -9648,7 +9660,7 @@
       </c>
       <c r="AT59" s="1"/>
     </row>
-    <row r="60" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>538</v>
       </c>
@@ -9752,7 +9764,7 @@
       </c>
       <c r="AT60" s="1"/>
     </row>
-    <row r="61" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>543</v>
       </c>
@@ -9856,7 +9868,7 @@
       </c>
       <c r="AT61" s="1"/>
     </row>
-    <row r="62" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>550</v>
       </c>
@@ -9962,7 +9974,7 @@
       </c>
       <c r="AT62" s="1"/>
     </row>
-    <row r="63" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>557</v>
       </c>
@@ -10066,7 +10078,7 @@
       </c>
       <c r="AT63" s="1"/>
     </row>
-    <row r="64" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>562</v>
       </c>
@@ -10170,7 +10182,7 @@
       </c>
       <c r="AT64" s="1"/>
     </row>
-    <row r="65" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>569</v>
       </c>
@@ -10276,7 +10288,7 @@
       </c>
       <c r="AT65" s="1"/>
     </row>
-    <row r="66" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>576</v>
       </c>
@@ -10378,7 +10390,7 @@
       </c>
       <c r="AT66" s="1"/>
     </row>
-    <row r="67" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>583</v>
       </c>
@@ -10478,7 +10490,7 @@
       </c>
       <c r="AT67" s="1"/>
     </row>
-    <row r="68" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>590</v>
       </c>
@@ -10582,7 +10594,7 @@
       </c>
       <c r="AT68" s="1"/>
     </row>
-    <row r="69" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>594</v>
       </c>
@@ -10686,7 +10698,7 @@
       </c>
       <c r="AT69" s="1"/>
     </row>
-    <row r="70" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>599</v>
       </c>
@@ -10792,7 +10804,7 @@
       </c>
       <c r="AT70" s="1"/>
     </row>
-    <row r="71" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>606</v>
       </c>
@@ -10898,7 +10910,7 @@
       </c>
       <c r="AT71" s="1"/>
     </row>
-    <row r="72" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>611</v>
       </c>
@@ -11002,7 +11014,7 @@
       </c>
       <c r="AT72" s="1"/>
     </row>
-    <row r="73" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>619</v>
       </c>
@@ -11106,7 +11118,7 @@
       </c>
       <c r="AT73" s="1"/>
     </row>
-    <row r="74" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>624</v>
       </c>
@@ -11212,7 +11224,7 @@
       </c>
       <c r="AT74" s="1"/>
     </row>
-    <row r="75" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>629</v>
       </c>
@@ -11318,7 +11330,7 @@
       </c>
       <c r="AT75" s="1"/>
     </row>
-    <row r="76" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>636</v>
       </c>
@@ -11422,7 +11434,7 @@
       </c>
       <c r="AT76" s="1"/>
     </row>
-    <row r="77" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>641</v>
       </c>
@@ -11526,7 +11538,7 @@
       </c>
       <c r="AT77" s="1"/>
     </row>
-    <row r="78" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>645</v>
       </c>
@@ -11630,7 +11642,7 @@
       </c>
       <c r="AT78" s="1"/>
     </row>
-    <row r="79" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>650</v>
       </c>
@@ -11734,7 +11746,7 @@
       </c>
       <c r="AT79" s="1"/>
     </row>
-    <row r="80" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>657</v>
       </c>
@@ -11838,7 +11850,7 @@
       </c>
       <c r="AT80" s="1"/>
     </row>
-    <row r="81" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>664</v>
       </c>
@@ -11944,7 +11956,7 @@
       </c>
       <c r="AT81" s="1"/>
     </row>
-    <row r="82" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>671</v>
       </c>
@@ -12050,7 +12062,7 @@
       </c>
       <c r="AT82" s="1"/>
     </row>
-    <row r="83" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>678</v>
       </c>
@@ -12154,7 +12166,7 @@
       </c>
       <c r="AT83" s="1"/>
     </row>
-    <row r="84" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>683</v>
       </c>
@@ -12258,7 +12270,7 @@
       </c>
       <c r="AT84" s="1"/>
     </row>
-    <row r="85" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>690</v>
       </c>
@@ -12362,7 +12374,7 @@
       </c>
       <c r="AT85" s="1"/>
     </row>
-    <row r="86" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>697</v>
       </c>
@@ -12466,7 +12478,7 @@
       </c>
       <c r="AT86" s="1"/>
     </row>
-    <row r="87" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>702</v>
       </c>
@@ -12570,7 +12582,7 @@
       </c>
       <c r="AT87" s="1"/>
     </row>
-    <row r="88" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>710</v>
       </c>
@@ -12674,7 +12686,7 @@
       </c>
       <c r="AT88" s="1"/>
     </row>
-    <row r="89" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>712</v>
       </c>
@@ -12778,7 +12790,7 @@
       </c>
       <c r="AT89" s="1"/>
     </row>
-    <row r="90" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>716</v>
       </c>
@@ -12882,7 +12894,7 @@
       </c>
       <c r="AT90" s="1"/>
     </row>
-    <row r="91" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>722</v>
       </c>
@@ -12986,7 +12998,7 @@
       </c>
       <c r="AT91" s="1"/>
     </row>
-    <row r="92" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>724</v>
       </c>
@@ -13090,7 +13102,7 @@
       </c>
       <c r="AT92" s="1"/>
     </row>
-    <row r="93" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>729</v>
       </c>
@@ -13194,7 +13206,7 @@
       </c>
       <c r="AT93" s="1"/>
     </row>
-    <row r="94" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>732</v>
       </c>
@@ -13292,7 +13304,7 @@
       </c>
       <c r="AT94" s="1"/>
     </row>
-    <row r="95" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>738</v>
       </c>
@@ -13392,7 +13404,7 @@
       </c>
       <c r="AT95" s="1"/>
     </row>
-    <row r="96" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>744</v>
       </c>
@@ -13494,7 +13506,7 @@
       </c>
       <c r="AT96" s="1"/>
     </row>
-    <row r="97" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>754</v>
       </c>
@@ -13594,7 +13606,7 @@
       </c>
       <c r="AT97" s="1"/>
     </row>
-    <row r="98" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>761</v>
       </c>
@@ -13694,7 +13706,7 @@
       </c>
       <c r="AT98" s="1"/>
     </row>
-    <row r="99" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>769</v>
       </c>
@@ -13792,7 +13804,7 @@
       </c>
       <c r="AT99" s="1"/>
     </row>
-    <row r="100" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>774</v>
       </c>
@@ -13890,7 +13902,7 @@
       </c>
       <c r="AT100" s="1"/>
     </row>
-    <row r="101" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>778</v>
       </c>
@@ -13988,7 +14000,7 @@
       </c>
       <c r="AT101" s="1"/>
     </row>
-    <row r="102" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>782</v>
       </c>
@@ -14088,7 +14100,7 @@
       </c>
       <c r="AT102" s="1"/>
     </row>
-    <row r="103" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>787</v>
       </c>
@@ -14188,7 +14200,7 @@
       </c>
       <c r="AT103" s="1"/>
     </row>
-    <row r="104" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>792</v>
       </c>
@@ -14290,7 +14302,7 @@
       </c>
       <c r="AT104" s="1"/>
     </row>
-    <row r="105" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>798</v>
       </c>
@@ -14392,7 +14404,7 @@
       </c>
       <c r="AT105" s="1"/>
     </row>
-    <row r="106" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>800</v>
       </c>
@@ -14494,7 +14506,7 @@
       </c>
       <c r="AT106" s="1"/>
     </row>
-    <row r="107" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>805</v>
       </c>
@@ -14592,7 +14604,7 @@
       </c>
       <c r="AT107" s="1"/>
     </row>
-    <row r="108" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>809</v>
       </c>
@@ -14694,7 +14706,7 @@
       </c>
       <c r="AT108" s="1"/>
     </row>
-    <row r="109" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>813</v>
       </c>
@@ -14798,7 +14810,7 @@
       </c>
       <c r="AT109" s="1"/>
     </row>
-    <row r="110" spans="1:46" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>821</v>
       </c>
@@ -14910,7 +14922,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14922,7 +14934,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
